--- a/game/Resources/DB/Excel/level.xlsx
+++ b/game/Resources/DB/Excel/level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>ufo_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-169,-62,82,169</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,14 @@
   </si>
   <si>
     <t>4,2,3,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:3,2,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2:3,3,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +496,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -560,19 +564,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -583,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -606,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -629,19 +633,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -652,19 +656,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -675,19 +679,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -698,19 +702,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -721,19 +725,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -744,19 +748,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/game/Resources/DB/Excel/level.xlsx
+++ b/game/Resources/DB/Excel/level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>ufo_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下个星球索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-169,-62,82,169</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,11 +132,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:3,2,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2:3,3,0</t>
+    <t>上个星球索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +504,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,7 +538,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -541,19 +549,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -564,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -587,19 +595,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -610,19 +618,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -633,19 +641,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -656,16 +664,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
@@ -679,19 +687,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -702,19 +710,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -725,19 +733,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -748,19 +756,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/game/Resources/DB/Excel/level.xlsx
+++ b/game/Resources/DB/Excel/level.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>ufo_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-169,-62,82,169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-46,38,-63,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,30 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,9,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,2,4,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,2,7,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2,3,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上个星球索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,15 +108,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,0,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,0,0,1</t>
+    <t>-240,-90,90,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,-68,77,-68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-255,-40,183,-89,143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,108,82,-68,-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,10,7,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-224,-89,96,211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-59,99,80,-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-279,-116,-80,107,270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,102,-80,22,-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,1:2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,8,1,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-264,-153,-19,160,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,-52,92,-70,84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,9,5,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-240,12,220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,-22,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203,54,-132,0,-231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-28,64,107,-115,-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,1,8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-259,-179,69,240,68,-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40,116,131,-11,-115,-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,4,10,11,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79,69,133,-115,-11,101,-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264,240,40,68,-62,-210,-240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,8,9,7,10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,0,2:3,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,1,4,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,17 +616,17 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -538,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -549,19 +661,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -572,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -595,19 +707,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -618,19 +730,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -641,19 +753,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -664,19 +776,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -687,19 +799,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -710,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -733,19 +845,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -756,19 +868,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
